--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,234 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Consciousness</t>
+  </si>
+  <si>
+    <t>Stroke Severity: Consciousness</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SNOMED CT#106167005</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>CVDComorbidities</t>
+  </si>
+  <si>
+    <t>Cardiovascular Comorbidities</t>
+  </si>
+  <si>
+    <t>SNOMED CT#266995000</t>
+  </si>
+  <si>
+    <t>DiagnosisEvidence</t>
+  </si>
+  <si>
+    <t>Diagnosis Evidence Base</t>
+  </si>
+  <si>
+    <t>SNOMED CT#230690007</t>
+  </si>
+  <si>
+    <t>DischDest</t>
+  </si>
+  <si>
+    <t>Discharge Destination Following Acute Care Hospitalization</t>
+  </si>
+  <si>
+    <t>SNOMED CT#225987006</t>
+  </si>
+  <si>
+    <t>EstStrokeSevNIHSSCat</t>
+  </si>
+  <si>
+    <t>Estimated Stroke Severity: based on NIHSS Category</t>
+  </si>
+  <si>
+    <t>SNOMED CT#450742003</t>
+  </si>
+  <si>
+    <t>Hemicraniectomy</t>
+  </si>
+  <si>
+    <t>SNOMED CT#707835005</t>
+  </si>
+  <si>
+    <t>PriorAtrialFibrillation</t>
+  </si>
+  <si>
+    <t>Prior Atrial Fibrillation and Flutter</t>
+  </si>
+  <si>
+    <t>SNOMED CT#195080001</t>
+  </si>
+  <si>
+    <t>PriorDiabetesMellitus</t>
+  </si>
+  <si>
+    <t>Prior Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>SNOMED CT#73211009</t>
+  </si>
+  <si>
+    <t>PriorHyperlipidemia</t>
+  </si>
+  <si>
+    <t>Prior Hyperlipidemia</t>
+  </si>
+  <si>
+    <t>SNOMED CT#55822004</t>
+  </si>
+  <si>
+    <t>PriorHypertension</t>
+  </si>
+  <si>
+    <t>Prior Hypertension</t>
+  </si>
+  <si>
+    <t>SNOMED CT#702867002</t>
+  </si>
+  <si>
+    <t>PriorIschemicHeartDisease</t>
+  </si>
+  <si>
+    <t>Prior Ischemic Heart Disease</t>
+  </si>
+  <si>
+    <t>SNOMED CT#414545008</t>
+  </si>
+  <si>
+    <t>PriorMyocardialInfarction</t>
+  </si>
+  <si>
+    <t>Prior Myocardial Infarction</t>
+  </si>
+  <si>
+    <t>SNOMED CT#399211009</t>
+  </si>
+  <si>
+    <t>PriorStrokeExclTIA</t>
+  </si>
+  <si>
+    <t>Prior Stroke excluding Transient Ischemic Attacks</t>
+  </si>
+  <si>
+    <t>SNOMED CT#16896891000119106</t>
+  </si>
+  <si>
+    <t>PriorTIA</t>
+  </si>
+  <si>
+    <t>Prior Transient Ischemic Attacks</t>
+  </si>
+  <si>
+    <t>SNOMED CT#161511000</t>
+  </si>
+  <si>
+    <t>ProcoagulantReversal</t>
+  </si>
+  <si>
+    <t>Procoagulant Reversal Therapy</t>
+  </si>
+  <si>
+    <t>SNOMED CT#438821000124106</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period, Attachment, Reference</t>
+  </si>
+  <si>
+    <t>RehabIN</t>
+  </si>
+  <si>
+    <t>Inpatient Acute Care Rehabilitation</t>
+  </si>
+  <si>
+    <t>SNOMED CT#80522000</t>
+  </si>
+  <si>
+    <t>RehabOUT</t>
+  </si>
+  <si>
+    <t>Post Acute Care Rehabilitation</t>
+  </si>
+  <si>
+    <t>SNOMED CT#52052004</t>
+  </si>
+  <si>
+    <t>StrokeRecur</t>
+  </si>
+  <si>
+    <t>Stroke Recurrence.</t>
+  </si>
+  <si>
+    <t>SNOMED CT#422504002</t>
+  </si>
+  <si>
+    <t>StrokeSevNIHSS</t>
+  </si>
+  <si>
+    <t>Stroke Severity: NIHSS Score</t>
+  </si>
+  <si>
+    <t>SNOMED CT#450743008</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>StrokeType</t>
+  </si>
+  <si>
+    <t>Stroke Type</t>
+  </si>
+  <si>
+    <t>SNOMED CT#287731003</t>
+  </si>
+  <si>
+    <t>SympIntracranialHemorrhage</t>
+  </si>
+  <si>
+    <t>Symptomatic Intracranial Hemorrhage</t>
+  </si>
+  <si>
+    <t>SNOMED CT#1386000</t>
+  </si>
+  <si>
+    <t>SymtDur</t>
+  </si>
+  <si>
+    <t>Duration of Stroke Symptoms</t>
+  </si>
+  <si>
+    <t>SNOMED CT#162442009</t>
+  </si>
+  <si>
+    <t>Thrombectomy</t>
+  </si>
+  <si>
+    <t>SNOMED CT#397046001</t>
+  </si>
+  <si>
+    <t>Thrombolytic</t>
+  </si>
+  <si>
+    <t>Thrombolytic Therapy</t>
+  </si>
+  <si>
+    <t>SNOMED CT#426347000</t>
   </si>
 </sst>
 </file>
@@ -178,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +447,846 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
